--- a/Results/borofloat_simulations/normal/surf-temps.xlsx
+++ b/Results/borofloat_simulations/normal/surf-temps.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maikel/Documents/code/Swift/Heating-FEM/Results/borofloat_simulations/fan_forced/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maikel/Documents/code/Swift/Heating-FEM/Results/borofloat_simulations/normal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7485,11 +7485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2067623760"/>
-        <c:axId val="-2070819296"/>
+        <c:axId val="1890347536"/>
+        <c:axId val="-2036765952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067623760"/>
+        <c:axId val="1890347536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7611,7 +7611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070819296"/>
+        <c:crossAx val="-2036765952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7619,7 +7619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070819296"/>
+        <c:axId val="-2036765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7716,6 +7716,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7756,7 +7757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067623760"/>
+        <c:crossAx val="1890347536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8402,13 +8403,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -8698,7 +8699,7 @@
   <dimension ref="A1:C1202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
